--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2085957.629181062</v>
+        <v>2194599.790483875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9689752.974026972</v>
+        <v>9695246.620015388</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>86.83936727001881</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.6880320211824</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>143.0059014937628</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,16 +873,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>146.9032265423694</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>35.54361781414442</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>140.654496257237</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.217633493452953</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>111.8068181385499</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>313.6784829843778</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>18.37595373060397</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>109.83262201617</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>69.7805520996461</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>20.25102067617261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>133.6059237111945</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.7084378797738</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>93.38904885909375</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>69.15817284271327</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>2.445727774094323</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>4.019807611473597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>105.7906564314215</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>39.83255574579544</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>178.2798710842938</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>86.09789039964352</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333688</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>72.26558381699965</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>244.3165938470681</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>182.6625718220555</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>247.2924896597638</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>219.6573813428539</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.46096678957</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.46096678957</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.744434193592</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953475</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1609.668898501152</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>1236.203140240072</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.9574707874393</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>825.1371474485143</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W4" t="n">
-        <v>676.7500499309695</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X4" t="n">
-        <v>676.7500499309695</v>
+        <v>734.1648523251894</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.9574707874393</v>
+        <v>513.3722731816592</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.7217947496369</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C5" t="n">
-        <v>105.7592778092252</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4598,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137587</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4652,16 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>790.7764984014352</v>
+        <v>777.6069060507739</v>
       </c>
       <c r="M6" t="n">
-        <v>1154.038517360655</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2765195627319</v>
+        <v>520.2684398664092</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>351.3322569385023</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>201.2156175261665</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>201.2156175261665</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W7" t="n">
-        <v>979.7071144345191</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="X7" t="n">
-        <v>751.7175635365018</v>
+        <v>922.709483840179</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.9249843929716</v>
+        <v>701.9169046966489</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638.360256348809</v>
+        <v>1489.525984198215</v>
       </c>
       <c r="C8" t="n">
-        <v>1269.397739408397</v>
+        <v>1489.525984198215</v>
       </c>
       <c r="D8" t="n">
-        <v>911.132040801647</v>
+        <v>1131.260285591465</v>
       </c>
       <c r="E8" t="n">
-        <v>911.132040801647</v>
+        <v>745.4720329932204</v>
       </c>
       <c r="F8" t="n">
-        <v>500.1461360120394</v>
+        <v>738.5265322440169</v>
       </c>
       <c r="G8" t="n">
-        <v>85.07368585703591</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>85.07368585703591</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388743</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.960096412931</v>
+        <v>1876.125824262337</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.1278029579775</v>
+        <v>458.8408207274658</v>
       </c>
       <c r="C10" t="n">
-        <v>431.1278029579775</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D10" t="n">
-        <v>431.1278029579775</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>283.2147093755843</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2147093755843</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>283.2147093755843</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9975225934421</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995249</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X10" t="n">
-        <v>651.9203821015076</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579775</v>
+        <v>640.4892855577056</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>599.4606235519266</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>452.5706760540162</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5522,19 +5524,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2757.723669558405</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C19" t="n">
-        <v>2588.787486630498</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D19" t="n">
-        <v>2438.670847218162</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E19" t="n">
-        <v>2419.773435218391</v>
+        <v>478.4366877403692</v>
       </c>
       <c r="F19" t="n">
-        <v>2419.773435218391</v>
+        <v>331.5467402424588</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>164.3506409573387</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388645</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5999,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,7 +6077,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
         <v>1896.176478190824</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2310.060639587498</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2090.45917461044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1801.383947954638</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1257.28228971179</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718132</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,16 +6463,16 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306003</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378096</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>2651.772778649335</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>2651.772778649335</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.973599365703</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>2990.037416437796</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>2839.920777025461</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>2692.007683443067</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>2545.117735945157</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>2377.921636660037</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
         <v>2337.686731866304</v>
@@ -6886,22 +6888,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509233</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y34" t="n">
-        <v>3158.973599365703</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6962,13 +6964,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7017,16 +7019,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1018.438627038652</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C37" t="n">
-        <v>849.5024441107454</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>699.3858046984096</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>551.4727111160165</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>404.5827636181061</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.2863919474</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1648.869221910439</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1420.879671012422</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.087091868892</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,19 +7192,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687895</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>2079.600600930059</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U43" t="n">
-        <v>1790.525374274257</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>4038.586459480718</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>3749.169289443757</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7648,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.76488231024513</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>199.7516311504061</v>
+        <v>186.4490126143846</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>129.7511347056852</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.19143052238942e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-5.661529149205321e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.5809595057647</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.91821458107438</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667954</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>70.46607471595068</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>193.1339494774973</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>111.8681131589313</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>216.1389255780005</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>144.5956654067388</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>146.3469868924065</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>100.4621571004284</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>108.2431272522972</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>79.42624789262533</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>164.9286282187579</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>213.9188905722445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>7.821049476759896</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>34.74287850523274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>4.845153664064156</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>6.0522740461833</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>847667.253761014</v>
+        <v>853609.1812620847</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752547</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805864</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707335</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707334</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707329</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707341</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744343.9996957843</v>
+        <v>-744343.9996957842</v>
       </c>
       <c r="C6" t="n">
-        <v>370407.7838801355</v>
+        <v>370407.7838801356</v>
       </c>
       <c r="D6" t="n">
-        <v>208609.742881816</v>
+        <v>370407.7838801358</v>
       </c>
       <c r="E6" t="n">
-        <v>151748.8686472844</v>
+        <v>-30324.11116990529</v>
       </c>
       <c r="F6" t="n">
-        <v>477161.3304546401</v>
+        <v>477161.3304546396</v>
       </c>
       <c r="G6" t="n">
         <v>477161.33045464</v>
       </c>
       <c r="H6" t="n">
-        <v>477161.3304546402</v>
+        <v>477161.33045464</v>
       </c>
       <c r="I6" t="n">
+        <v>477161.3304546397</v>
+      </c>
+      <c r="J6" t="n">
+        <v>309556.1526446574</v>
+      </c>
+      <c r="K6" t="n">
         <v>477161.3304546401</v>
       </c>
-      <c r="J6" t="n">
-        <v>309556.1526446576</v>
-      </c>
-      <c r="K6" t="n">
-        <v>477161.3304546403</v>
-      </c>
       <c r="L6" t="n">
-        <v>428867.3604464493</v>
+        <v>477161.3304546397</v>
       </c>
       <c r="M6" t="n">
-        <v>392106.3025191278</v>
+        <v>344554.0367257131</v>
       </c>
       <c r="N6" t="n">
+        <v>477161.3304546401</v>
+      </c>
+      <c r="O6" t="n">
+        <v>477161.33045464</v>
+      </c>
+      <c r="P6" t="n">
         <v>477161.3304546399</v>
-      </c>
-      <c r="O6" t="n">
-        <v>477161.3304546399</v>
-      </c>
-      <c r="P6" t="n">
-        <v>477161.33045464</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26795,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>267.8436743506642</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.5529366962307</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>36.82607868817448</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>139.6197717942216</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>319.1394238065386</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>208.586472460176</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>144.2034145294783</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>174.7161801980411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>97.86921978857617</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.20097604232201</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>57.41419908245781</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.57186831019202</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>435.9638754389783</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32101,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32558,16 +32560,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32795,10 +32797,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>351.1157147121648</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33266,25 +33268,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>409.0029787211719</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33737,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P45" t="n">
-        <v>295.974394015948</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>381.1895643063683</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>411.6868389156661</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>497.4319917882564</v>
+        <v>484.1293732522348</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35027,10 +35029,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>520.9482342985592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>293.3676309945339</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
@@ -35726,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,10 +36141,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36443,10 +36445,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36841,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37075,7 +37077,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,13 +37165,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>440.9755796648388</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P45" t="n">
-        <v>161.9999866016177</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2194599.790483875</v>
+        <v>2190462.633233723</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.075960674002913</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>157.6880320211824</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.0059014937628</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>94.60599006304095</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5074746827215</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>140.654496257237</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>1.217633493452953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>313.6784829843778</v>
+        <v>293.4668729822808</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>109.83262201617</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.55276019063697</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.25102067617261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>70.38407275859021</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.6059237111945</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>165.8053198049109</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>69.82863813027318</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>93.38904885909375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>69.15817284271327</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.445727774094323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>105.7906564314215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>33.66638448560004</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>178.2798710842938</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.65602513333688</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>244.3165938470681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>247.2924896597638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051409</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>219.6573813428539</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.203140240072</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.203140240072</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.242398426416</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2560.242398426416</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2306.661337690596</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="W2" t="n">
-        <v>1609.668898501152</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="X2" t="n">
-        <v>1236.203140240072</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="Y2" t="n">
-        <v>1236.203140240072</v>
+        <v>1975.598450347025</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,43 +4406,43 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,58 +4464,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9218676324039</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
         <v>1216.838891429094</v>
@@ -4524,16 +4524,16 @@
         <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232067</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W4" t="n">
-        <v>962.1544032232067</v>
+        <v>927.4217213921336</v>
       </c>
       <c r="X4" t="n">
-        <v>734.1648523251894</v>
+        <v>699.4321704941162</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.3722731816592</v>
+        <v>603.8705643698324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1699.061860336089</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1133.642247115598</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>747.8539945173541</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>336.8680897277465</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>325.2037434924395</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4606,13 +4606,13 @@
         <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2089.201192311901</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.201192311901</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1699.061860336089</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
         <v>302.1446891756898</v>
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4652,22 +4652,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.2684398664092</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>351.3322569385023</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>201.2156175261665</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>201.2156175261665</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.699034738196</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>922.709483840179</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.9169046966489</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1489.525984198215</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>1489.525984198215</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.260285591465</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E8" t="n">
-        <v>745.4720329932204</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F8" t="n">
-        <v>738.5265322440169</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262337</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.125824262337</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.125824262337</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.8408207274658</v>
+        <v>689.9034178578795</v>
       </c>
       <c r="C10" t="n">
-        <v>347.89877828689</v>
+        <v>520.9672349299726</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>370.8505955176369</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>222.9375019352437</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>76.04755443733339</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>861.2818647012357</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>861.2818647012357</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y10" t="n">
-        <v>640.4892855577056</v>
+        <v>871.5518826881192</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928005</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5366,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622266</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343197</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3737171343197</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4606235519266</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>452.5706760540162</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934014</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227623</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4366877403692</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5467402424588</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>164.3506409573387</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1339.368993063876</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.379442165859</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2310.060639587498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2090.45917461044</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1801.383947954638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1546.699459748751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1257.28228971179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1029.292738813773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>3752.175244810116</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912098</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.448174698413</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0966395286528</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>4288.376853076439</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>4038.586459480718</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>3749.169289443757</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>3521.17973854574</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.38715940221</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.483279497101</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589485</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>186.4490126143846</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>14.25823202432787</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>129.7511347056852</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.19143052238942e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-5.661529149205321e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>31.91821458107438</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.46607471595068</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1339494774973</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>111.8681131589313</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.1389255780005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>146.3469868924065</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>252.5180899036441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>108.2431272522972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>164.9286282187579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>7.821049476759896</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.845153664064156</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>6.0522740461833</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.7268316249</v>
-      </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707341</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707331</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.424496707422</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744343.9996957842</v>
+        <v>-744343.9996957844</v>
       </c>
       <c r="C6" t="n">
-        <v>370407.7838801356</v>
+        <v>370407.7838801357</v>
       </c>
       <c r="D6" t="n">
-        <v>370407.7838801358</v>
+        <v>370407.7838801355</v>
       </c>
       <c r="E6" t="n">
-        <v>-30324.11116990529</v>
+        <v>-30671.49042426287</v>
       </c>
       <c r="F6" t="n">
-        <v>477161.3304546396</v>
+        <v>476813.951200283</v>
       </c>
       <c r="G6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002831</v>
       </c>
       <c r="H6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002832</v>
       </c>
       <c r="I6" t="n">
-        <v>477161.3304546397</v>
+        <v>476813.951200283</v>
       </c>
       <c r="J6" t="n">
-        <v>309556.1526446574</v>
+        <v>309208.7733903007</v>
       </c>
       <c r="K6" t="n">
-        <v>477161.3304546401</v>
+        <v>476813.9512002833</v>
       </c>
       <c r="L6" t="n">
-        <v>477161.3304546397</v>
+        <v>476813.9512002827</v>
       </c>
       <c r="M6" t="n">
-        <v>344554.0367257131</v>
+        <v>344206.6574713562</v>
       </c>
       <c r="N6" t="n">
-        <v>477161.3304546401</v>
+        <v>476813.9512002828</v>
       </c>
       <c r="O6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002828</v>
       </c>
       <c r="P6" t="n">
-        <v>477161.3304546399</v>
+        <v>476813.9512002828</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>121.3762547247914</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>191.5529366962307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.82607868817448</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>123.9786632890538</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>95.51107787968385</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>208.586472460176</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2034145294783</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,19 +27824,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>97.86921978857617</v>
+        <v>118.0808297906732</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>57.41419908245781</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>141.7538398541672</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>435.9638754389783</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>671.2522281007816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399242</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>322.6999460717711</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>249.1672590991333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>93.3494773968123</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>484.1293732522348</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35029,16 +35029,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>263.9377611478602</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>520.9482342985592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>293.3676309945339</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>528.6559836563372</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.202553156591</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>191.3582339884378</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>122.3296324324666</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190462.633233723</v>
+        <v>2192223.163536509</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.075960674002688</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.075960674002913</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -870,13 +870,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>138.317861186028</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.60599006304095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5074746827215</v>
+        <v>271.2173873551928</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>146.0114450469642</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426075</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>293.4668729822808</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063697</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274636</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>70.38407275859021</v>
+        <v>286.5229983365869</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>165.8053198049109</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>277.3912306734335</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8253826161909023</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158751</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>130.1208074460232</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>47.84205650382022</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>33.66638448560004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>18.16423677622371</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>178.8757728051409</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.598450347025</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>1608.732863380354</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1250.467164773603</v>
       </c>
       <c r="E2" t="n">
         <v>1248.370234799863</v>
@@ -4336,13 +4336,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.228484740841</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2560.242398426416</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2560.242398426416</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2306.661337690596</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.598450347025</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.598450347025</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.598450347025</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.598450347025</v>
+        <v>1977.695380320765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908473</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143502</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458221</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4442,19 +4442,19 @@
         <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.8705643698324</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="C4" t="n">
-        <v>603.8705643698324</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4518,22 +4518,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1300.102360935341</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>1045.417872729454</v>
       </c>
       <c r="W4" t="n">
-        <v>927.4217213921336</v>
+        <v>756.000702692493</v>
       </c>
       <c r="X4" t="n">
-        <v>699.4321704941162</v>
+        <v>528.0111517944756</v>
       </c>
       <c r="Y4" t="n">
-        <v>603.8705643698324</v>
+        <v>307.2185726509455</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.907945722349</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.907945722349</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.642247115598</v>
+        <v>1133.642247115599</v>
       </c>
       <c r="E5" t="n">
-        <v>747.8539945173541</v>
+        <v>747.853994517355</v>
       </c>
       <c r="F5" t="n">
-        <v>336.8680897277465</v>
+        <v>336.8680897277474</v>
       </c>
       <c r="G5" t="n">
-        <v>325.2037434924395</v>
+        <v>325.2037434924404</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,37 +4573,37 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
         <v>1878.507785786471</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897737</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>898.2468199959895</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>898.2468199959895</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>748.1301805836538</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>600.2170870012607</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>453.3271395033503</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>728.3028554854582</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>359.3403385450464</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1114.90269554958</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>507.241398742976</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>1117.223096727984</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9034178578795</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299726</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176369</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352437</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733339</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.344461831649</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881192</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868268</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662381</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1877.026663243044</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.342175037157</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.925005000197</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.935454102179</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>94.65038286230612</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,46 +6682,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589485</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.25823202432787</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241563</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111044</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>176.3785887617805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.131767663157461</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.469330230033</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>18.49466557218918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>127.2568112467075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707303</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707304</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26472,19 +26472,19 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744343.9996957844</v>
+        <v>-744343.9996957839</v>
       </c>
       <c r="C6" t="n">
-        <v>370407.7838801357</v>
+        <v>370407.783880136</v>
       </c>
       <c r="D6" t="n">
-        <v>370407.7838801355</v>
+        <v>370407.7838801358</v>
       </c>
       <c r="E6" t="n">
-        <v>-30671.49042426287</v>
+        <v>-30358.84909534208</v>
       </c>
       <c r="F6" t="n">
-        <v>476813.951200283</v>
+        <v>477126.5925292044</v>
       </c>
       <c r="G6" t="n">
-        <v>476813.9512002831</v>
+        <v>477126.592529204</v>
       </c>
       <c r="H6" t="n">
-        <v>476813.9512002832</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="I6" t="n">
-        <v>476813.951200283</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="J6" t="n">
-        <v>309208.7733903007</v>
+        <v>309521.4147192218</v>
       </c>
       <c r="K6" t="n">
-        <v>476813.9512002833</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="L6" t="n">
-        <v>476813.9512002827</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="M6" t="n">
-        <v>344206.6574713562</v>
+        <v>344519.2988002775</v>
       </c>
       <c r="N6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292046</v>
       </c>
       <c r="O6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="P6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292042</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>379.8544093982591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>121.3762547247914</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>147.9092929351726</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.9786632890538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>95.51107787968385</v>
+        <v>29.80116520721253</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>20.29515499783994</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807549</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>118.0808297906732</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541672</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781345</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943058</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.3494773968123</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>397.6203974676414</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378503</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35029,10 +35029,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>263.9377611478602</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676411</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489548</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948012</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
